--- a/TestScript/Case1_MTD_Analysis.xlsx
+++ b/TestScript/Case1_MTD_Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Case1_MTD_Analysis" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>UserName</t>
   </si>
@@ -393,28 +393,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21688419</v>
       </c>
@@ -481,41 +481,6 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>21688419</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/TestScript/Case1_MTD_Analysis.xlsx
+++ b/TestScript/Case1_MTD_Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Case1_MTD_Analysis" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>/Wendy</t>
+  </si>
+  <si>
+    <t>30.01.2016</t>
+  </si>
+  <si>
+    <t>DocDateFrom</t>
+  </si>
+  <si>
+    <t>DocDateTo</t>
   </si>
 </sst>
 </file>
@@ -393,28 +402,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,10 +456,16 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21688419</v>
       </c>
@@ -478,9 +494,15 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/TestScript/Case1_MTD_Analysis.xlsx
+++ b/TestScript/Case1_MTD_Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Case1_MTD_Analysis" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>UserName</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Language</t>
   </si>
   <si>
-    <t>GLAccountFrom</t>
-  </si>
-  <si>
-    <t>GLAccountTo</t>
-  </si>
-  <si>
     <t>CompanyCode</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
     <t>Client</t>
   </si>
   <si>
-    <t>001*</t>
-  </si>
-  <si>
-    <t>002*</t>
-  </si>
-  <si>
     <t>DE50</t>
   </si>
   <si>
@@ -81,10 +69,7 @@
     <t>30.01.2016</t>
   </si>
   <si>
-    <t>DocDateFrom</t>
-  </si>
-  <si>
-    <t>DocDateTo</t>
+    <t>CH10</t>
   </si>
 </sst>
 </file>
@@ -402,29 +387,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -452,58 +434,63 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21688419</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21688419</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/TestScript/Case1_MTD_Analysis.xlsx
+++ b/TestScript/Case1_MTD_Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Case1_MTD_Analysis" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>30.01.2016</t>
-  </si>
-  <si>
-    <t>CH10</t>
   </si>
 </sst>
 </file>
@@ -387,26 +384,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21688419</v>
       </c>
@@ -461,35 +458,6 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>21688419</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/TestScript/Case1_MTD_Analysis.xlsx
+++ b/TestScript/Case1_MTD_Analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>30.01.2016</t>
-  </si>
-  <si>
-    <t>CH10</t>
   </si>
 </sst>
 </file>
@@ -387,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,35 +461,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>21688419</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestScript/Case1_MTD_Analysis.xlsx
+++ b/TestScript/Case1_MTD_Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Case1_MTD_Analysis" sheetId="1" r:id="rId1"/>
@@ -45,40 +45,47 @@
     <t>Layout</t>
   </si>
   <si>
+    <t>saplh4.sapnet.hp.com</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>DE50</t>
+  </si>
+  <si>
+    <t>01.01.2016</t>
+  </si>
+  <si>
+    <t>/Wendy</t>
+  </si>
+  <si>
+    <t>30.01.2016</t>
+  </si>
+  <si>
     <t>4rfv%tgb</t>
-  </si>
-  <si>
-    <t>saplh4.sapnet.hp.com</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>DE50</t>
-  </si>
-  <si>
-    <t>01.01.2016</t>
-  </si>
-  <si>
-    <t>/Wendy</t>
-  </si>
-  <si>
-    <t>30.01.2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,6 +204,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -232,6 +256,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,23 +428,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -432,36 +473,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>21688419</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestScript/Case1_MTD_Analysis.xlsx
+++ b/TestScript/Case1_MTD_Analysis.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Case1_MTD_Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Case6_WorkFlow" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -427,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,4 +508,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>21688419</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestScript/Case1_MTD_Analysis.xlsx
+++ b/TestScript/Case1_MTD_Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Case1_MTD_Analysis" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>UserName</t>
   </si>
@@ -46,35 +46,52 @@
     <t>Layout</t>
   </si>
   <si>
-    <t>saplh4.sapnet.hp.com</t>
-  </si>
-  <si>
     <t>EN</t>
   </si>
   <si>
     <t>Client</t>
   </si>
   <si>
-    <t>DE50</t>
-  </si>
-  <si>
-    <t>01.01.2016</t>
-  </si>
-  <si>
     <t>/Wendy</t>
   </si>
   <si>
-    <t>30.01.2016</t>
-  </si>
-  <si>
-    <t>4rfv%tgb</t>
+    <t>1qaz@wsx</t>
+  </si>
+  <si>
+    <t>saplh7.sapnet.hp.com</t>
+  </si>
+  <si>
+    <t>01.03.2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.03.2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG10</t>
+  </si>
+  <si>
+    <t>JP10</t>
+  </si>
+  <si>
+    <t>FR40</t>
+  </si>
+  <si>
+    <t>CH70</t>
+  </si>
+  <si>
+    <t>CA00</t>
+  </si>
+  <si>
+    <t>MX00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +105,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,8 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -474,33 +498,178 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21688419</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21688419</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>21688419</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21688419</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21688419</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>21688419</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -514,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,13 +711,13 @@
         <v>21688419</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>100</v>

--- a/TestScript/Case1_MTD_Analysis.xlsx
+++ b/TestScript/Case1_MTD_Analysis.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Case1_MTD_Analysis" sheetId="1" r:id="rId1"/>
     <sheet name="Case6_WorkFlow" sheetId="2" r:id="rId2"/>
+    <sheet name="Case4_Parallel_Ledger" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>UserName</t>
   </si>
@@ -85,23 +86,35 @@
   </si>
   <si>
     <t>MX00</t>
+  </si>
+  <si>
+    <t>GLAccountFilePath</t>
+  </si>
+  <si>
+    <t>glAccount.txt</t>
+  </si>
+  <si>
+    <t>01.03.2016</t>
+  </si>
+  <si>
+    <t>30.03.2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -111,6 +124,13 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,23 +250,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -281,23 +285,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,24 +439,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>21688419</v>
       </c>
@@ -527,7 +514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>21688419</v>
       </c>
@@ -556,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>21688419</v>
       </c>
@@ -585,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>21688419</v>
       </c>
@@ -614,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>21688419</v>
       </c>
@@ -643,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>21688419</v>
       </c>
@@ -687,9 +674,9 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>21688419</v>
       </c>
@@ -728,4 +715,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>21688419</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>